--- a/results/output_detections_highlighting_with_text_and_annotations.xlsx
+++ b/results/output_detections_highlighting_with_text_and_annotations.xlsx
@@ -3797,7 +3797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3872,10 +3872,8 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>20227980235300</v>
@@ -3888,6 +3886,36 @@
       </c>
       <c r="H2" s="3" t="n">
         <v>337.1330039216667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>g22</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3564188420100</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3564188.4201</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>3564.1884201</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>59.403140335</v>
       </c>
     </row>
   </sheetData>
